--- a/src/main/resources/Database.xlsx
+++ b/src/main/resources/Database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parent Questions" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t xml:space="preserve">Question ID</t>
   </si>
@@ -64,22 +64,16 @@
     <t xml:space="preserve">Medium</t>
   </si>
   <si>
-    <t xml:space="preserve">Array Declaration in Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descriptive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Method Overriding </t>
   </si>
   <si>
     <t xml:space="preserve">OOPS Concepts</t>
   </si>
   <si>
-    <t xml:space="preserve">Which are OOPS Concepts in Java</t>
+    <t xml:space="preserve">Methods in Java</t>
   </si>
   <si>
-    <t xml:space="preserve">Methods in Java</t>
+    <t xml:space="preserve">Descriptive</t>
   </si>
   <si>
     <t xml:space="preserve">Components in Java</t>
@@ -109,12 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sub Topic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 2</t>
   </si>
   <si>
     <t xml:space="preserve">Correct Answer</t>
@@ -331,7 +319,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -360,13 +348,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Docs-Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -403,18 +384,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -597,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -630,10 +605,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,59 +625,59 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -727,16 +698,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z201"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1376518218624"/>
@@ -746,7 +717,7 @@
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="47.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,10 +850,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -917,13 +888,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -958,13 +929,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -996,13 +967,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
@@ -1033,27 +1004,17 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="str">
         <f aca="false">IF(ISBLANK(A8),"","'" &amp; A8)</f>
-        <v>'7</v>
+        <v/>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1074,27 +1035,17 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="str">
         <f aca="false">IF(ISBLANK(A9),"","'" &amp; A9)</f>
-        <v>'8</v>
+        <v/>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
@@ -1393,7 +1344,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1424,7 +1375,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -7004,75 +6955,15 @@
       <c r="Y199" s="7"/>
       <c r="Z199" s="7"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="5"/>
-      <c r="B200" s="7"/>
-      <c r="C200" s="7"/>
-      <c r="D200" s="7"/>
-      <c r="E200" s="7"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7"/>
-      <c r="I200" s="7" t="str">
-        <f aca="false">IF(ISBLANK(A200),"","'" &amp; A200)</f>
-        <v/>
-      </c>
-      <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
-      <c r="L200" s="7"/>
-      <c r="M200" s="7"/>
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="7"/>
-      <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-      <c r="T200" s="7"/>
-      <c r="U200" s="7"/>
-      <c r="V200" s="7"/>
-      <c r="W200" s="7"/>
-      <c r="X200" s="7"/>
-      <c r="Y200" s="7"/>
-      <c r="Z200" s="7"/>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="5"/>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7" t="str">
-        <f aca="false">IF(ISBLANK(A201),"","'" &amp; A201)</f>
-        <v/>
-      </c>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7"/>
-      <c r="U201" s="7"/>
-      <c r="V201" s="7"/>
-      <c r="W201" s="7"/>
-      <c r="X201" s="7"/>
-      <c r="Y201" s="7"/>
-      <c r="Z201" s="7"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="greaterThan" prompt="Enter numbers greater than 1" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A201" type="decimal">
+    <dataValidation allowBlank="true" operator="greaterThan" prompt="Enter numbers greater than 1" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A199" type="decimal">
       <formula1>1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Please enter valid difficulty level." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C201" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Please enter valid difficulty level." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C199" type="list">
       <formula1>"High,Medium,Low"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7080,11 +6971,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Max question length : 2000 characters." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B201" type="custom">
+    <dataValidation allowBlank="true" operator="between" prompt="Max question length : 2000 characters." showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3:B199" type="custom">
       <formula1>lte(LEN(B3),(2000))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" prompt="Please enter valid input" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D201" type="list">
+    <dataValidation allowBlank="true" operator="between" prompt="Please enter valid input" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D199" type="list">
       <formula1>"Descriptive,Objective"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7106,15 +6997,15 @@
   </sheetPr>
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.5910931174089"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.62753036437247"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6396761133603"/>
@@ -7124,22 +7015,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -7162,46 +7053,9 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8201,7 +8055,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8219,25 +8073,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>29</v>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -8264,13 +8118,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E2" s="7" t="n">
         <v>1</v>
@@ -8306,13 +8160,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="n">
         <v>1</v>
@@ -9348,7 +9202,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9366,25 +9220,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9411,10 +9265,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -9427,7 +9281,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -9454,10 +9308,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -9470,7 +9324,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -10501,7 +10355,7 @@
   <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10524,90 +10378,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-      <c r="BF1" s="11"/>
-      <c r="BG1" s="11"/>
-      <c r="BH1" s="11"/>
-      <c r="BI1" s="11"/>
-      <c r="BJ1" s="11"/>
-      <c r="BK1" s="11"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
+      <c r="BD1" s="10"/>
+      <c r="BE1" s="10"/>
+      <c r="BF1" s="10"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
+      <c r="BK1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
@@ -10617,22 +10471,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="I2" s="7" t="n">
         <v>1</v>
@@ -10641,7 +10495,7 @@
         <v>7</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -10695,7 +10549,7 @@
       <c r="BI2" s="7"/>
       <c r="BJ2" s="7"/>
       <c r="BK2" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10706,22 +10560,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="7" t="n">
         <v>1</v>
@@ -10730,7 +10584,7 @@
         <v>11</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -10784,7 +10638,7 @@
       <c r="BI3" s="7"/>
       <c r="BJ3" s="7"/>
       <c r="BK3" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10792,25 +10646,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="7" t="n">
         <v>1</v>
@@ -10819,7 +10673,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -10873,7 +10727,7 @@
       <c r="BI4" s="7"/>
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10881,25 +10735,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="I5" s="7" t="n">
         <v>1</v>
@@ -10908,7 +10762,7 @@
         <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -10968,34 +10822,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -11055,34 +10909,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
@@ -11193,144 +11047,144 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15"/>
+      <c r="B6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="21" t="s">
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="22" t="s">
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="2.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="13"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
